--- a/LetterFrequency.xlsx
+++ b/LetterFrequency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\PycharmProjects\descifrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC696609-CD99-469B-B4CC-EA0292B254A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C3C872-AA31-434C-A545-0311CD588308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69975C7B-7E1C-4EF8-B7DC-01CF43E87AB5}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>16587</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>14810</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>13318</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>11450</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>7874</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>5246</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>3853</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>3819</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>3693</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>3316</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>2019</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>1257</v>

--- a/LetterFrequency.xlsx
+++ b/LetterFrequency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\PycharmProjects\descifrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C3C872-AA31-434C-A545-0311CD588308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE7EC2-8AF4-438A-981F-1FB1FE35A543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69975C7B-7E1C-4EF8-B7DC-01CF43E87AB5}"/>
   </bookViews>

--- a/LetterFrequency.xlsx
+++ b/LetterFrequency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\PycharmProjects\descifrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE7EC2-8AF4-438A-981F-1FB1FE35A543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11033953-1CAF-4480-A44B-210870F187FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69975C7B-7E1C-4EF8-B7DC-01CF43E87AB5}"/>
   </bookViews>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8438E69-58CF-4550-BBDE-F6DB72C99A0E}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,7 +724,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
